--- a/baselines/summary_baseline.xlsx
+++ b/baselines/summary_baseline.xlsx
@@ -552,31 +552,31 @@
         <v>0.01829677710220634</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03463274624913329</v>
+        <v>0.03463274624913374</v>
       </c>
       <c r="H2" t="n">
-        <v>2.923263617816072</v>
+        <v>2.923263617816073</v>
       </c>
       <c r="I2" t="n">
-        <v>2.644121171773648</v>
+        <v>2.644121171773649</v>
       </c>
       <c r="J2" t="n">
-        <v>2.637566847799948</v>
+        <v>2.637566847799949</v>
       </c>
       <c r="K2" t="n">
         <v>2.697530143108954</v>
       </c>
       <c r="L2" t="n">
-        <v>0.09549000108685626</v>
+        <v>0.09549000108685637</v>
       </c>
       <c r="M2" t="n">
-        <v>0.09773212661181883</v>
+        <v>0.09773212661181893</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>5.429913831060218</v>
+        <v>5.429913831060537</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
@@ -587,7 +587,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>2155.120155272395</v>
+        <v>2155.120155273794</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.050894463831624</v>
+        <v>2.050894463831623</v>
       </c>
       <c r="C3" t="n">
         <v>2.020746742237938</v>
       </c>
       <c r="D3" t="n">
-        <v>1.998403519166455</v>
+        <v>1.998403519166454</v>
       </c>
       <c r="E3" t="n">
-        <v>1.971636485247902</v>
+        <v>1.971636485228009</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01469979178614659</v>
+        <v>0.01469979178614638</v>
       </c>
       <c r="G3" t="n">
-        <v>0.02559417151436522</v>
+        <v>0.02559417151436513</v>
       </c>
       <c r="H3" t="n">
         <v>-1.222896471692557</v>
@@ -632,10 +632,10 @@
         <v>-1.594675566921566</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.4474565608894256</v>
+        <v>-0.4474565608894246</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.3812195707296999</v>
+        <v>-0.3812195707296989</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -667,46 +667,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.6155876482255</v>
+        <v>1.615587648145031</v>
       </c>
       <c r="C4" t="n">
-        <v>1.639234067428422</v>
+        <v>1.639234067316844</v>
       </c>
       <c r="D4" t="n">
-        <v>1.612690004647894</v>
+        <v>1.612690004648196</v>
       </c>
       <c r="E4" t="n">
-        <v>1.50806997152928</v>
+        <v>1.507058860778469</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.01463641989891024</v>
+        <v>-0.01463641988038406</v>
       </c>
       <c r="G4" t="n">
-        <v>0.001793553931158813</v>
+        <v>0.001793553881252956</v>
       </c>
       <c r="H4" t="n">
-        <v>-12.69439032538524</v>
+        <v>-12.69439032538546</v>
       </c>
       <c r="I4" t="n">
-        <v>-13.39460032534794</v>
+        <v>-13.39460032534528</v>
       </c>
       <c r="J4" t="n">
-        <v>-13.28662667705884</v>
+        <v>-13.28662667705617</v>
       </c>
       <c r="K4" t="n">
-        <v>-13.18124996783638</v>
+        <v>-13.19121830018599</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.05515900976846994</v>
+        <v>-0.05515900976824201</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.04665339070985423</v>
+        <v>-0.04665339070962589</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>9.765501504266624</v>
+        <v>9.76550149632873</v>
       </c>
       <c r="P4" t="inlineStr">
         <is>
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>2941.198169644299</v>
+        <v>2941.198169644301</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
@@ -732,58 +732,58 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.088912220021636</v>
+        <v>2.129246523749498</v>
       </c>
       <c r="C5" t="n">
-        <v>1.963272181576593</v>
+        <v>2.32780033431284</v>
       </c>
       <c r="D5" t="n">
-        <v>1.465322755620355</v>
+        <v>1.498476101251924</v>
       </c>
       <c r="E5" t="n">
-        <v>2.166596859234548</v>
+        <v>2.174273138392876</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06014615513319273</v>
+        <v>-0.09325073839439589</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2985235369989949</v>
+        <v>0.2962411423299257</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1967152146151725</v>
+        <v>0.7272457978082164</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.3085125258249505</v>
+        <v>3.063109129235536</v>
       </c>
       <c r="J5" t="n">
-        <v>0.5045558107219263</v>
+        <v>0.9641835343575842</v>
       </c>
       <c r="K5" t="n">
-        <v>3.247455309188699</v>
+        <v>3.236829508470516</v>
       </c>
       <c r="L5" t="n">
-        <v>2.568320612254031</v>
+        <v>-3.211931012138093</v>
       </c>
       <c r="M5" t="n">
-        <v>-1.564904863657711</v>
+        <v>-0.3258014515359924</v>
       </c>
       <c r="N5" t="n">
-        <v>49.41186708943703</v>
+        <v>49.41470345478757</v>
       </c>
       <c r="O5" t="n">
-        <v>35.45727035047873</v>
+        <v>35.4025774235912</v>
       </c>
       <c r="P5" t="n">
-        <v>0.2824138726371145</v>
+        <v>0.2835618763556254</v>
       </c>
       <c r="Q5" t="n">
-        <v>60124.50035628452</v>
+        <v>60130.25262871758</v>
       </c>
       <c r="R5" t="n">
-        <v>10731.16344922087</v>
+        <v>10666.89037595265</v>
       </c>
       <c r="S5" t="n">
-        <v>0.8215176278284166</v>
+        <v>0.8226035995255698</v>
       </c>
     </row>
     <row r="6">
@@ -793,58 +793,58 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.303940916497062</v>
+        <v>2.353497408032057</v>
       </c>
       <c r="C6" t="n">
-        <v>2.091195060712693</v>
+        <v>2.109916675408572</v>
       </c>
       <c r="D6" t="n">
-        <v>1.915892484167274</v>
+        <v>1.933834686249061</v>
       </c>
       <c r="E6" t="n">
-        <v>1.719553728207039</v>
+        <v>1.757436584637848</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0923399789729981</v>
+        <v>0.1034973447568661</v>
       </c>
       <c r="G6" t="n">
-        <v>0.168428117904942</v>
+        <v>0.1783145034920217</v>
       </c>
       <c r="H6" t="n">
-        <v>1.434079308250028</v>
+        <v>1.859099986419486</v>
       </c>
       <c r="I6" t="n">
-        <v>1.11796748267955</v>
+        <v>1.127391932266859</v>
       </c>
       <c r="J6" t="n">
-        <v>1.358941575198193</v>
+        <v>1.366189036431576</v>
       </c>
       <c r="K6" t="n">
-        <v>1.977682436814951</v>
+        <v>2.018470056403355</v>
       </c>
       <c r="L6" t="n">
-        <v>0.2204284126769961</v>
+        <v>0.3935818726790766</v>
       </c>
       <c r="M6" t="n">
-        <v>0.05239440567866764</v>
+        <v>0.2651341797582532</v>
       </c>
       <c r="N6" t="n">
-        <v>58.52299612654716</v>
+        <v>58.56205698374294</v>
       </c>
       <c r="O6" t="n">
-        <v>27.74546340889608</v>
+        <v>27.78376534877567</v>
       </c>
       <c r="P6" t="n">
-        <v>0.5259049391644151</v>
+        <v>0.5255671200810356</v>
       </c>
       <c r="Q6" t="n">
-        <v>35720.36061054644</v>
+        <v>35760.10505277378</v>
       </c>
       <c r="R6" t="n">
-        <v>6390.313469152843</v>
+        <v>6396.867561200709</v>
       </c>
       <c r="S6" t="n">
-        <v>0.8211016529529072</v>
+        <v>0.8211172044444391</v>
       </c>
     </row>
     <row r="7">
@@ -854,58 +854,58 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.936791119740502</v>
+        <v>1.998322945979766</v>
       </c>
       <c r="C7" t="n">
-        <v>1.720475690728818</v>
+        <v>1.79533276583599</v>
       </c>
       <c r="D7" t="n">
-        <v>1.444004327490261</v>
+        <v>1.48934460273134</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9739683153665596</v>
+        <v>1.097066006383741</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1116875365685625</v>
+        <v>0.1015802678701919</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2544346611400544</v>
+        <v>0.2547027467569199</v>
       </c>
       <c r="H7" t="n">
-        <v>0.8846811962630541</v>
+        <v>1.491805294661361</v>
       </c>
       <c r="I7" t="n">
-        <v>0.4696325114056087</v>
+        <v>1.101694183750637</v>
       </c>
       <c r="J7" t="n">
-        <v>0.8883391293598026</v>
+        <v>1.383226585677932</v>
       </c>
       <c r="K7" t="n">
-        <v>1.971809418627475</v>
+        <v>2.42260905938264</v>
       </c>
       <c r="L7" t="n">
-        <v>0.4691505670185324</v>
+        <v>0.2615026989827644</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.004134747197295344</v>
+        <v>0.07278343184059835</v>
       </c>
       <c r="N7" t="n">
-        <v>50.19238336671816</v>
+        <v>50.66124661242159</v>
       </c>
       <c r="O7" t="n">
-        <v>27.32787012243582</v>
+        <v>27.75857726600257</v>
       </c>
       <c r="P7" t="n">
-        <v>0.4555375080961679</v>
+        <v>0.4520747292626537</v>
       </c>
       <c r="Q7" t="n">
-        <v>27654.63592625596</v>
+        <v>28086.52663896557</v>
       </c>
       <c r="R7" t="n">
-        <v>4980.219641346858</v>
+        <v>5060.804482203451</v>
       </c>
       <c r="S7" t="n">
-        <v>0.8199137513642506</v>
+        <v>0.8198138008570134</v>
       </c>
     </row>
     <row r="8">
@@ -915,58 +915,58 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.375283026435193</v>
+        <v>1.375168058836285</v>
       </c>
       <c r="C8" t="n">
-        <v>1.303057014803822</v>
+        <v>1.302946746890901</v>
       </c>
       <c r="D8" t="n">
-        <v>1.07791725009967</v>
+        <v>1.077820610074246</v>
       </c>
       <c r="E8" t="n">
-        <v>1.353441229418888</v>
+        <v>1.353326673072742</v>
       </c>
       <c r="F8" t="n">
-        <v>0.05251719845520405</v>
+        <v>0.05251817149279955</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2162215126775113</v>
+        <v>0.2162262618386182</v>
       </c>
       <c r="H8" t="n">
-        <v>4.505811250098482</v>
+        <v>4.505451498978486</v>
       </c>
       <c r="I8" t="n">
-        <v>4.200626357819417</v>
+        <v>4.200286761975906</v>
       </c>
       <c r="J8" t="n">
-        <v>4.481025383631599</v>
+        <v>4.480668837191839</v>
       </c>
       <c r="K8" t="n">
-        <v>6.001089483857233</v>
+        <v>6.000633948144233</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0677313973754214</v>
+        <v>0.06773233205856723</v>
       </c>
       <c r="M8" t="n">
-        <v>0.005500866567888526</v>
+        <v>0.0055005945113971</v>
       </c>
       <c r="N8" t="n">
-        <v>42.13425671367315</v>
+        <v>42.13425993396559</v>
       </c>
       <c r="O8" t="n">
-        <v>42.59095216745936</v>
+        <v>42.59115229752614</v>
       </c>
       <c r="P8" t="n">
-        <v>-0.01083905328839024</v>
+        <v>-0.0108437258486706</v>
       </c>
       <c r="Q8" t="n">
-        <v>76596.63641531537</v>
+        <v>76596.63085865349</v>
       </c>
       <c r="R8" t="n">
-        <v>9666.485387622941</v>
+        <v>9666.512176416243</v>
       </c>
       <c r="S8" t="n">
-        <v>0.8738001322249949</v>
+        <v>0.8737997733313596</v>
       </c>
     </row>
   </sheetData>

--- a/baselines/summary_baseline.xlsx
+++ b/baselines/summary_baseline.xlsx
@@ -732,58 +732,58 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.129246523749498</v>
+        <v>2.129246523749677</v>
       </c>
       <c r="C5" t="n">
-        <v>2.32780033431284</v>
+        <v>1.96345339780637</v>
       </c>
       <c r="D5" t="n">
-        <v>1.498476101251924</v>
+        <v>1.134130246115497</v>
       </c>
       <c r="E5" t="n">
-        <v>2.174273138392876</v>
+        <v>2.171047991949717</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.09325073839439589</v>
+        <v>0.07786469255393635</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2962411423299257</v>
+        <v>0.4673560654131045</v>
       </c>
       <c r="H5" t="n">
-        <v>0.7272457978082164</v>
+        <v>0.7272457978082166</v>
       </c>
       <c r="I5" t="n">
-        <v>3.063109129235536</v>
+        <v>-0.3089006207838001</v>
       </c>
       <c r="J5" t="n">
-        <v>0.9641835343575842</v>
+        <v>-2.407826242110738</v>
       </c>
       <c r="K5" t="n">
-        <v>3.236829508470516</v>
+        <v>3.23678887278546</v>
       </c>
       <c r="L5" t="n">
-        <v>-3.211931012138093</v>
+        <v>1.42475408137767</v>
       </c>
       <c r="M5" t="n">
-        <v>-0.3258014515359924</v>
+        <v>4.310883678348473</v>
       </c>
       <c r="N5" t="n">
         <v>49.41470345478757</v>
       </c>
       <c r="O5" t="n">
-        <v>35.4025774235912</v>
+        <v>35.47961999108387</v>
       </c>
       <c r="P5" t="n">
-        <v>0.2835618763556254</v>
+        <v>0.2820027742644197</v>
       </c>
       <c r="Q5" t="n">
         <v>60130.25262871758</v>
       </c>
       <c r="R5" t="n">
-        <v>10666.89037595265</v>
+        <v>10756.2962108778</v>
       </c>
       <c r="S5" t="n">
-        <v>0.8226035995255698</v>
+        <v>0.8211167300876979</v>
       </c>
     </row>
     <row r="6">

--- a/baselines/summary_baseline.xlsx
+++ b/baselines/summary_baseline.xlsx
@@ -732,58 +732,58 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.129246523749677</v>
+        <v>2.144805580120606</v>
       </c>
       <c r="C5" t="n">
-        <v>1.96345339780637</v>
+        <v>1.963595577174609</v>
       </c>
       <c r="D5" t="n">
-        <v>1.134130246115497</v>
+        <v>1.465663329985225</v>
       </c>
       <c r="E5" t="n">
-        <v>2.171047991949717</v>
+        <v>2.166488683623705</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07786469255393635</v>
+        <v>0.08448784571690986</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4673560654131045</v>
+        <v>0.3166451339133459</v>
       </c>
       <c r="H5" t="n">
-        <v>0.7272457978082166</v>
+        <v>0.8725135578166892</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.3089006207838001</v>
+        <v>-0.3089016795485015</v>
       </c>
       <c r="J5" t="n">
-        <v>-2.407826242110738</v>
+        <v>0.5041507988903997</v>
       </c>
       <c r="K5" t="n">
-        <v>3.23678887278546</v>
+        <v>3.247051593819852</v>
       </c>
       <c r="L5" t="n">
-        <v>1.42475408137767</v>
+        <v>1.354036538207467</v>
       </c>
       <c r="M5" t="n">
-        <v>4.310883678348473</v>
+        <v>0.4221857134782548</v>
       </c>
       <c r="N5" t="n">
-        <v>49.41470345478757</v>
+        <v>49.4000340563707</v>
       </c>
       <c r="O5" t="n">
-        <v>35.47961999108387</v>
+        <v>35.48155915589382</v>
       </c>
       <c r="P5" t="n">
-        <v>0.2820027742644197</v>
+        <v>0.2817503098195118</v>
       </c>
       <c r="Q5" t="n">
-        <v>60130.25262871758</v>
+        <v>60100.50482482319</v>
       </c>
       <c r="R5" t="n">
-        <v>10756.2962108778</v>
+        <v>10756.40215879221</v>
       </c>
       <c r="S5" t="n">
-        <v>0.8211167300876979</v>
+        <v>0.8210264258154863</v>
       </c>
     </row>
     <row r="6">
